--- a/tariff_plans.xlsx
+++ b/tariff_plans.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73ED4EF-9B77-401C-825D-144CA7CA8E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{79AA5739-5E20-4D84-AC07-F3EB0F8BD275}"/>
+    <workbookView windowWidth="23040" windowHeight="9707"/>
   </bookViews>
   <sheets>
     <sheet name="tariff_plans" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>PlanID</t>
   </si>
@@ -42,104 +38,135 @@
     <t>IncludedMins</t>
   </si>
   <si>
+    <t>IncludedatainGB</t>
+  </si>
+  <si>
+    <t>SMScount</t>
+  </si>
+  <si>
+    <t>OTT</t>
+  </si>
+  <si>
     <t>PlanDescription</t>
   </si>
   <si>
-    <t>IncludedatainGB</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>Sonyliv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netflix </t>
+  </si>
+  <si>
+    <t>Amazon Prime , Spotify</t>
+  </si>
+  <si>
     <t>Hotstar</t>
   </si>
   <si>
-    <t>Spotify</t>
-  </si>
-  <si>
-    <t>Netflix premium</t>
-  </si>
-  <si>
-    <t>Netflix basic</t>
-  </si>
-  <si>
-    <t>Sonyliv</t>
-  </si>
-  <si>
-    <t>OTT</t>
-  </si>
-  <si>
-    <t>SMScount</t>
-  </si>
-  <si>
-    <t>Amazon Prime , Spotify</t>
-  </si>
-  <si>
     <t>Hotstar , Spotify</t>
   </si>
   <si>
     <t>Hotstar , Sonyliv</t>
   </si>
   <si>
-    <t>Netflix basic , Spotify</t>
+    <t>Netflix  , Spotify</t>
   </si>
   <si>
     <t>Hotstar, Amazon Prime , Spotify</t>
   </si>
   <si>
-    <t>Netflix premium , Spotify</t>
-  </si>
-  <si>
-    <t>Netflix basic, Hotstar, Amazon Prime , Spotify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netflix premium, Amazon Prime , Spotify </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netflix premium, Hotstar , Spotify </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netflix premium, Hotstar , Amazon Prime </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netflix premium, Hotstar, Amazon Prime , Spotify </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netflix premium, Hotstar, Amazon Prime , Sonyliv </t>
+    <t>Netflix , Hotstar, Amazon Prime , Spotify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netflix , Amazon Prime , Spotify </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netflix , Hotstar , Spotify </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netflix , Hotstar , Amazon Prime </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netflix , Hotstar, Amazon Prime , Spotify </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netflix , Hotstar, Amazon Prime , Sonyliv </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,7 +174,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,35 +182,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,7 +197,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,14 +205,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,22 +213,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,14 +228,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -257,175 +269,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -435,6 +460,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,7 +500,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,15 +535,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -519,17 +550,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,49 +570,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -595,58 +641,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -695,7 +744,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -728,26 +777,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -780,23 +812,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -938,39 +953,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9A49B4-46F9-488B-98F0-721373CF99AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.22222222222222" customWidth="1"/>
+    <col min="2" max="2" width="11.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="11.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="14.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="10.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="46" customWidth="1"/>
+    <col min="7" max="7" width="106.555555555556" customWidth="1"/>
+    <col min="8" max="8" width="73.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="11.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="23.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,19 +992,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1010,14 +1021,14 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" t="str">
         <f>_xlfn.CONCAT("Pack Includes ",C2," minutes,",D2," GB data and ",F2," subscriptions.")</f>
         <v>Pack Includes 500 minutes,3 GB data and None subscriptions.</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1034,14 +1045,14 @@
         <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G5" si="0">_xlfn.CONCAT("Pack Includes ",C3," minutes,",D3," GB data and ",F3," subscriptions.")</f>
         <v>Pack Includes 100 minutes,12 GB data and None subscriptions.</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1058,14 +1069,14 @@
         <v>500</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
         <v>Pack Includes 200 minutes,25 GB data and None subscriptions.</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1082,14 +1093,14 @@
         <v>700</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
         <v>Pack Includes 350 minutes,12 GB data and None subscriptions.</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1106,14 +1117,14 @@
         <v>1000</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="str">
         <f>_xlfn.CONCAT("Pack Includes ",C6," minutes,",D6," GB data , ",F6," subscriptions.")</f>
         <v>Pack Includes 500 minutes,25 GB data , Spotify subscriptions.</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1130,14 +1141,14 @@
         <v>1000</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" ref="G7:G9" si="1">_xlfn.CONCAT("Pack Includes ",C7," minutes,",D7," GB data , ",F7," subscriptions.")</f>
+        <f t="shared" ref="G7:G26" si="1">_xlfn.CONCAT("Pack Includes ",C7," minutes,",D7," GB data , ",F7," subscriptions.")</f>
         <v>Pack Includes 2500 minutes,8 GB data , Spotify subscriptions.</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1154,14 +1165,14 @@
         <v>1400</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
         <v>Pack Includes 1500 minutes,18 GB data , Sonyliv subscriptions.</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1178,14 +1189,14 @@
         <v>1500</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
         <v>Pack Includes 2000 minutes,20 GB data , Sonyliv subscriptions.</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1202,14 +1213,14 @@
         <v>1500</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C10," minutes,",D10," GB data , ",F10," subscriptions.")</f>
-        <v>Pack Includes 1500 minutes,25 GB data , Netflix basic subscriptions.</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>Pack Includes 1500 minutes,25 GB data , Netflix  subscriptions.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1226,14 +1237,14 @@
         <v>2800</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C11," minutes,",D11," GB data , ",F11," subscriptions.")</f>
+        <f t="shared" si="1"/>
         <v>Pack Includes 2000 minutes,33 GB data , Amazon Prime , Spotify subscriptions.</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1250,14 +1261,14 @@
         <v>2800</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G12" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C12," minutes,",D12," GB data , ",F12," subscriptions.")</f>
+        <f t="shared" si="1"/>
         <v>Pack Includes 3000 minutes,42 GB data , Hotstar subscriptions.</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1274,14 +1285,14 @@
         <v>3000</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C13," minutes,",D13," GB data , ",F13," subscriptions.")</f>
+        <f t="shared" si="1"/>
         <v>Pack Includes 3500 minutes,45 GB data , Hotstar , Spotify subscriptions.</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1298,14 +1309,14 @@
         <v>2800</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C14," minutes,",D14," GB data , ",F14," subscriptions.")</f>
+        <f t="shared" si="1"/>
         <v>Pack Includes 1000 minutes,132 GB data , Hotstar , Sonyliv subscriptions.</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1322,14 +1333,14 @@
         <v>2800</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C15," minutes,",D15," GB data , ",F15," subscriptions.")</f>
-        <v>Pack Includes 3000 minutes,56 GB data , Netflix basic , Spotify subscriptions.</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>Pack Includes 3000 minutes,56 GB data , Netflix  , Spotify subscriptions.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1346,14 +1357,14 @@
         <v>2800</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C16," minutes,",D16," GB data , ",F16," subscriptions.")</f>
-        <v>Pack Includes 4000 minutes,60 GB data , Netflix premium subscriptions.</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>Pack Includes 4000 minutes,60 GB data , Netflix  subscriptions.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1370,14 +1381,14 @@
         <v>2800</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C17," minutes,",D17," GB data , ",F17," subscriptions.")</f>
+        <f t="shared" si="1"/>
         <v>Pack Includes 4000 minutes,84 GB data , Hotstar, Amazon Prime , Spotify subscriptions.</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1394,14 +1405,14 @@
         <v>3000</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G18" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C18," minutes,",D18," GB data , ",F18," subscriptions.")</f>
-        <v>Pack Includes 4500 minutes,89 GB data , Netflix premium , Spotify subscriptions.</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>Pack Includes 4500 minutes,89 GB data , Netflix  , Spotify subscriptions.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1418,14 +1429,14 @@
         <v>3000</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C19," minutes,",D19," GB data , ",F19," subscriptions.")</f>
+        <f t="shared" si="1"/>
         <v>Pack Includes 7000 minutes,90 GB data , Amazon Prime , Spotify subscriptions.</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1442,14 +1453,14 @@
         <v>3000</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C20," minutes,",D20," GB data , ",F20," subscriptions.")</f>
-        <v>Pack Includes 7000 minutes,100 GB data , Netflix basic, Hotstar, Amazon Prime , Spotify subscriptions.</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>Pack Includes 7000 minutes,100 GB data , Netflix , Hotstar, Amazon Prime , Spotify subscriptions.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1466,14 +1477,14 @@
         <v>3400</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C21," minutes,",D21," GB data , ",F21," subscriptions.")</f>
-        <v>Pack Includes 7000 minutes,120 GB data , Netflix premium, Amazon Prime , Spotify  subscriptions.</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>Pack Includes 7000 minutes,120 GB data , Netflix , Amazon Prime , Spotify  subscriptions.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1490,14 +1501,14 @@
         <v>3500</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G22" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C22," minutes,",D22," GB data , ",F22," subscriptions.")</f>
-        <v>Pack Includes 7200 minutes,132 GB data , Netflix premium, Hotstar , Spotify  subscriptions.</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>Pack Includes 7200 minutes,132 GB data , Netflix , Hotstar , Spotify  subscriptions.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1514,14 +1525,14 @@
         <v>3300</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G23" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C23," minutes,",D23," GB data , ",F23," subscriptions.")</f>
-        <v>Pack Includes 8500 minutes,150 GB data , Netflix premium, Hotstar , Amazon Prime  subscriptions.</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>Pack Includes 8500 minutes,150 GB data , Netflix , Hotstar , Amazon Prime  subscriptions.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1538,14 +1549,14 @@
         <v>4000</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G24" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C24," minutes,",D24," GB data , ",F24," subscriptions.")</f>
-        <v>Pack Includes 10500 minutes,165 GB data , Netflix premium, Hotstar , Amazon Prime  subscriptions.</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>Pack Includes 10500 minutes,165 GB data , Netflix , Hotstar , Amazon Prime  subscriptions.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1562,14 +1573,14 @@
         <v>4500</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G25" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C25," minutes,",D25," GB data , ",F25," subscriptions.")</f>
-        <v>Pack Includes 13500 minutes,165 GB data , Netflix premium, Hotstar, Amazon Prime , Spotify  subscriptions.</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>Pack Includes 13500 minutes,165 GB data , Netflix , Hotstar, Amazon Prime , Spotify  subscriptions.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1586,15 +1597,16 @@
         <v>4000</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" t="str">
-        <f>_xlfn.CONCAT("Pack Includes ",C26," minutes,",D26," GB data , ",F26," subscriptions.")</f>
-        <v>Pack Includes 14000 minutes,180 GB data , Netflix premium, Hotstar, Amazon Prime , Sonyliv  subscriptions.</v>
+        <f t="shared" si="1"/>
+        <v>Pack Includes 14000 minutes,180 GB data , Netflix , Hotstar, Amazon Prime , Sonyliv  subscriptions.</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>